--- a/teg_asovac_src/static_env/media_root/cargamasiva/Coordinadores_de_area.xlsx
+++ b/teg_asovac_src/static_env/media_root/cargamasiva/Coordinadores_de_area.xlsx
@@ -34,16 +34,16 @@
     <t xml:space="preserve">Correo electrónico (*)</t>
   </si>
   <si>
-    <t xml:space="preserve">Área (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subárea 1 (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subárea 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subárea 3</t>
+    <t xml:space="preserve">Código Área (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Subárea 1 (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Subárea 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Subárea 3</t>
   </si>
   <si>
     <t xml:space="preserve">Género (*)</t>
@@ -85,13 +85,13 @@
     <t xml:space="preserve">upruebas@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecnología</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería Electrónica y Biomédica</t>
+    <t xml:space="preserve">TEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEB</t>
   </si>
   <si>
     <t xml:space="preserve">Masculino</t>
@@ -112,13 +112,13 @@
     <t xml:space="preserve">pusuario@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Biociencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasitología</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioquímica</t>
+    <t xml:space="preserve">BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR</t>
   </si>
   <si>
     <t xml:space="preserve">Femenino</t>
@@ -242,7 +242,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
